--- a/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
+++ b/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B9DA31-D9A0-4ACB-9863-671DAD4A16D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317E04D1-DDF6-4C3C-A20D-0380C082A587}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{75DED707-FBFB-4074-892B-41C1EFCEBF7A}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{75DED707-FBFB-4074-892B-41C1EFCEBF7A}"/>
   </bookViews>
   <sheets>
     <sheet name="개인" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="49">
   <si>
     <t>타입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,10 @@
   </si>
   <si>
     <t>신규일 때(careerTyp = "1")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.07.08 삭제 요청 받음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,7 +197,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,8 +213,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,6 +242,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,7 +281,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -268,6 +296,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B180571B-1AD6-4B13-8800-77889AFA3FCC}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -685,17 +728,19 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
+    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3"/>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
@@ -751,21 +796,24 @@
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
+    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="3"/>
+      <c r="C14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -773,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76D487F-4077-4A65-BCF0-C4300069A120}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -925,16 +973,18 @@
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
+      <c r="A14" s="6">
         <v>9</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="3"/>
+      <c r="C14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
@@ -1013,16 +1063,18 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="2">
+      <c r="A21" s="8">
         <v>27</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="3"/>
+      <c r="C21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
@@ -1197,16 +1249,18 @@
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="2">
+      <c r="A40" s="6">
         <v>24</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="3"/>
+      <c r="C40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="2">

--- a/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
+++ b/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317E04D1-DDF6-4C3C-A20D-0380C082A587}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFA2A9B-63D7-4F9C-9881-6A312B8FB328}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{75DED707-FBFB-4074-892B-41C1EFCEBF7A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{75DED707-FBFB-4074-892B-41C1EFCEBF7A}"/>
   </bookViews>
   <sheets>
     <sheet name="개인" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="51">
   <si>
     <t>타입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,6 +190,14 @@
   </si>
   <si>
     <t>2021.07.08 삭제 요청 받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.07.08 필수 제외 요청 받음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -281,7 +289,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -293,9 +301,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -310,6 +315,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -629,14 +643,14 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B10" activeCellId="1" sqref="A10 B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="100.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.796875" style="1"/>
-    <col min="4" max="4" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -728,17 +742,17 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="6">
+    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -755,16 +769,18 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3"/>
+      <c r="C10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
@@ -796,17 +812,17 @@
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="6">
+    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -821,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76D487F-4077-4A65-BCF0-C4300069A120}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -830,17 +846,17 @@
     <col min="1" max="1" width="8.796875" style="1"/>
     <col min="2" max="2" width="113.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.796875" style="1"/>
-    <col min="4" max="4" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -927,12 +943,12 @@
       <c r="D8" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
@@ -973,30 +989,32 @@
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>9</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
+      <c r="A15" s="10">
         <v>10</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="3"/>
+      <c r="C15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
@@ -1063,16 +1081,16 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>27</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="C21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1087,12 +1105,12 @@
       <c r="D22" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
@@ -1149,12 +1167,12 @@
       <c r="D28" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
@@ -1191,12 +1209,12 @@
       <c r="D33" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
@@ -1249,16 +1267,16 @@
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="6">
+      <c r="A40" s="5">
         <v>24</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="7" t="s">
+      <c r="C40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>48</v>
       </c>
     </row>

--- a/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
+++ b/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFA2A9B-63D7-4F9C-9881-6A312B8FB328}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC2B056-A10B-4350-B806-B3DD9A32E7AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{75DED707-FBFB-4074-892B-41C1EFCEBF7A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="54">
   <si>
     <t>타입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,53 +151,66 @@
     <t>대표 경력증명서</t>
   </si>
   <si>
+    <t>경력증명서(업무인력)</t>
+  </si>
+  <si>
+    <t>경력증명서(전산인력)</t>
+  </si>
+  <si>
+    <t>자격확인 서류(전산인력)</t>
+  </si>
+  <si>
+    <t>물적 설비내역에 대한 증빙서류</t>
+  </si>
+  <si>
+    <t>사무공간 / 전산설비 등의 임차계약서 사본</t>
+  </si>
+  <si>
+    <t>부동산 등기부등본</t>
+  </si>
+  <si>
+    <t>신청인의 사회적신용에 대한 결격사유없음 확인서</t>
+  </si>
+  <si>
+    <t>기업 신용정보조회서</t>
+  </si>
+  <si>
+    <t>대리인 신청 위임장(위임인 인감날인)</t>
+  </si>
+  <si>
+    <t>경력일 때(careerTyp = "2")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규일 때(careerTyp = "1")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.07.08 삭제 요청 받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.07.08 필수 제외 요청 받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.07.09 추가 요청 받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주민등록사본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.07.09 등록정보 탭으로 이동 요청 받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>업무수행기준요건관련 서류</t>
-  </si>
-  <si>
-    <t>경력증명서(업무인력)</t>
-  </si>
-  <si>
-    <t>경력증명서(전산인력)</t>
-  </si>
-  <si>
-    <t>자격확인 서류(전산인력)</t>
-  </si>
-  <si>
-    <t>물적 설비내역에 대한 증빙서류</t>
-  </si>
-  <si>
-    <t>사무공간 / 전산설비 등의 임차계약서 사본</t>
-  </si>
-  <si>
-    <t>부동산 등기부등본</t>
-  </si>
-  <si>
-    <t>신청인의 사회적신용에 대한 결격사유없음 확인서</t>
-  </si>
-  <si>
-    <t>기업 신용정보조회서</t>
-  </si>
-  <si>
-    <t>대리인 신청 위임장(위임인 인감날인)</t>
-  </si>
-  <si>
-    <t>경력일 때(careerTyp = "2")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신규일 때(careerTyp = "1")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021.07.08 삭제 요청 받음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021.07.08 필수 제외 요청 받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.07.09 필수 제외 요청 받음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -205,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,8 +252,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,7 +286,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,7 +326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -305,6 +342,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -317,14 +363,26 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,7 +701,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" activeCellId="1" sqref="A10 B10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -669,7 +727,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -681,7 +739,7 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -693,7 +751,7 @@
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -703,11 +761,11 @@
         <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -717,7 +775,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -731,7 +789,7 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -743,87 +801,85 @@
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="5">
+      <c r="A8" s="16">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="16">
         <v>13</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>48</v>
+      <c r="C14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -835,10 +891,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76D487F-4077-4A65-BCF0-C4300069A120}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -846,17 +902,17 @@
     <col min="1" max="1" width="8.796875" style="1"/>
     <col min="2" max="2" width="113.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.796875" style="1"/>
-    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -873,7 +929,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -885,7 +941,7 @@
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
+      <c r="A4" s="18">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -897,7 +953,7 @@
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
+      <c r="A5" s="18">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -919,7 +975,7 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
+      <c r="A7" s="18">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -931,382 +987,384 @@
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="9" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="18">
+        <v>15</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="18">
         <v>7</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="18">
         <v>8</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="5">
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="14">
+        <v>10</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="10">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="18">
+        <v>30</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="18">
+        <v>11</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="18">
+        <v>12</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="18">
+        <v>13</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="18">
+        <v>14</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="8">
+        <v>15</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="12">
+        <v>27</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
+        <v>28</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="2">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="2">
-        <v>12</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="3" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="18">
+        <v>16</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="18">
+        <v>17</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="2">
-        <v>13</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="3" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="18">
+        <v>18</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="2">
+        <v>19</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="2">
+        <v>20</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="18">
+        <v>21</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="18">
+        <v>22</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="18">
+        <v>23</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="12">
+        <v>24</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="2">
-        <v>14</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="2">
-        <v>15</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="7">
-        <v>27</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="2">
-        <v>28</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="2">
-        <v>16</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="2">
-        <v>17</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="2">
-        <v>18</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="2">
-        <v>19</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="2">
-        <v>20</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" s="2">
-        <v>21</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" s="2">
-        <v>22</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="2">
-        <v>23</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="5">
-        <v>24</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="18">
         <v>25</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="2">
-        <v>26</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" s="2">
-        <v>29</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>44</v>
@@ -1316,15 +1374,40 @@
       </c>
       <c r="D43" s="3"/>
     </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="18">
+        <v>26</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="18">
+        <v>29</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A37:D37"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
+++ b/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC2B056-A10B-4350-B806-B3DD9A32E7AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691C7ABB-F4AD-4FED-92FF-FB0FD7AB3350}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{75DED707-FBFB-4074-892B-41C1EFCEBF7A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="55">
   <si>
     <t>타입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,6 +211,10 @@
   </si>
   <si>
     <t>2021.07.09 필수 제외 요청 받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결격요건 확인서 등 관련서류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -218,7 +222,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +271,13 @@
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -326,7 +337,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -342,47 +353,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -727,7 +744,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="18">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -739,7 +756,7 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -751,7 +768,7 @@
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -765,7 +782,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -789,7 +806,7 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -801,84 +818,84 @@
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="18">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="15"/>
+      <c r="C9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="13" t="s">
+      <c r="C14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>47</v>
       </c>
     </row>
@@ -891,10 +908,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76D487F-4077-4A65-BCF0-C4300069A120}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -907,12 +924,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -929,7 +946,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -941,7 +958,7 @@
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -953,7 +970,7 @@
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -975,7 +992,7 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -987,36 +1004,36 @@
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="18">
+      <c r="A9" s="17">
         <v>15</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="7"/>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
@@ -1033,7 +1050,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="18">
+      <c r="A13" s="17">
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1045,7 +1062,7 @@
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="18">
+      <c r="A14" s="17">
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1057,47 +1074,47 @@
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>9</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="13" t="s">
+      <c r="C15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="14">
+      <c r="A16" s="13">
         <v>10</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="18">
+      <c r="A17" s="17">
         <v>30</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="18">
+      <c r="A18" s="17">
         <v>11</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1109,7 +1126,7 @@
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="18">
+      <c r="A19" s="17">
         <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1123,7 +1140,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="18">
+      <c r="A20" s="17">
         <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1137,7 +1154,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="18">
+      <c r="A21" s="17">
         <v>14</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1149,260 +1166,272 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>15</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="12">
+      <c r="A23" s="11">
         <v>27</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="13" t="s">
+      <c r="C23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="2">
+      <c r="A24" s="19">
+        <v>27</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
         <v>28</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="5" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="18">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="17">
         <v>16</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="C29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="18">
-        <v>17</v>
-      </c>
-      <c r="B29" s="3" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="17">
+        <v>17</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="C30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="18">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="17">
         <v>18</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="5" t="s">
+      <c r="C31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="2">
-        <v>19</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" s="5" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="2">
+        <v>20</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" s="2" t="s">
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="18">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="17">
         <v>21</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="18">
+      <c r="C40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="17">
         <v>22</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="18">
+      <c r="C41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="17">
         <v>23</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="12">
+      <c r="C42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="11">
         <v>24</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B43" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="13" t="s">
+      <c r="C43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" s="18">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="17">
         <v>25</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" s="18">
+      <c r="C44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="17">
         <v>26</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" s="18">
+      <c r="C45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="17">
         <v>29</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="3"/>
+      <c r="C46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A38:D38"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
   </mergeCells>

--- a/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
+++ b/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691C7ABB-F4AD-4FED-92FF-FB0FD7AB3350}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086DDD0D-5F93-418E-A2EA-F45D676E678F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{75DED707-FBFB-4074-892B-41C1EFCEBF7A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="58">
   <si>
     <t>타입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,6 +215,18 @@
   </si>
   <si>
     <t>결격요건 확인서 등 관련서류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.07.12 필수 제외 요청 받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.07.12 추가 요청 받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위탁계약서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -297,13 +309,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,7 +349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -353,52 +365,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -744,7 +753,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="17">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -756,7 +765,7 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="17">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -768,7 +777,7 @@
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="17">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -782,7 +791,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="17">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -806,7 +815,7 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="17">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -818,84 +827,84 @@
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="15">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="17">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="14"/>
+      <c r="C9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="13">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="13">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="13">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="13">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="15">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="12" t="s">
+      <c r="C14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -908,10 +917,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76D487F-4077-4A65-BCF0-C4300069A120}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -924,12 +933,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -946,7 +955,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="17">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -958,7 +967,7 @@
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="17">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -970,7 +979,7 @@
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="17">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -992,7 +1001,7 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="17">
+      <c r="A7" s="11">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1004,373 +1013,375 @@
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="5">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="17">
+      <c r="A9" s="11">
         <v>15</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="6"/>
+      <c r="C9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="11">
+        <v>31</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="7">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="17">
-        <v>7</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="17">
-        <v>8</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="11">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="11">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="5">
         <v>9</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="C17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="13">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="7">
         <v>10</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="17">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="11">
         <v>30</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="C19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="17">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="11">
         <v>11</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="17">
+      <c r="C20" s="2"/>
+      <c r="D20" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="11">
         <v>12</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="17">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="11">
         <v>13</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="17">
-        <v>14</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="7">
-        <v>15</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="11">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="13">
+        <v>15</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="5">
         <v>27</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="12" t="s">
+      <c r="C25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="19">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="17">
         <v>27</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B26" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20" t="s">
+      <c r="C26" s="17"/>
+      <c r="D26" s="18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="2">
         <v>28</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="18" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="17">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="11">
         <v>16</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="C31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="17">
-        <v>17</v>
-      </c>
-      <c r="B30" s="3" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="11">
+        <v>17</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="C32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="17">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="11">
         <v>18</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="18" t="s">
+      <c r="C33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="2" t="s">
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="2">
         <v>19</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" s="2">
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="2">
         <v>20</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" s="18" t="s">
+      <c r="C38" s="2"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="2" t="s">
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="17">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="11">
         <v>21</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="17">
-        <v>22</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="17">
-        <v>23</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>17</v>
@@ -1379,61 +1390,85 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="11">
+        <v>22</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="11">
+        <v>23</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="5">
         <v>24</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B45" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="12" t="s">
+      <c r="C45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" s="17">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="11">
         <v>25</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" s="17">
+      <c r="C46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="11">
         <v>26</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" s="17">
+      <c r="C47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" s="11">
         <v>29</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="3"/>
+      <c r="C48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A40:D40"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
+++ b/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086DDD0D-5F93-418E-A2EA-F45D676E678F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212C019C-2861-4885-A8F2-50F75FF206CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{75DED707-FBFB-4074-892B-41C1EFCEBF7A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{75DED707-FBFB-4074-892B-41C1EFCEBF7A}"/>
   </bookViews>
   <sheets>
     <sheet name="개인" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="57">
   <si>
     <t>타입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,9 +70,6 @@
     <t>결격사유없음 확인서(파산, 피한정후견인등)</t>
   </si>
   <si>
-    <t>대리인 신청 위임장(위임인 인간날인)</t>
-  </si>
-  <si>
     <t>위임인 인감증명서</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>기업 신용정보조회서</t>
   </si>
   <si>
-    <t>대리인 신청 위임장(위임인 인감날인)</t>
-  </si>
-  <si>
     <t>경력일 때(careerTyp = "2")</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,6 +221,10 @@
   </si>
   <si>
     <t>위탁계약서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대리인 신청 위임장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,29 +384,29 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B180571B-1AD6-4B13-8800-77889AFA3FCC}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -760,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -772,7 +770,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -784,10 +782,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -798,10 +796,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -822,7 +820,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -834,10 +832,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -845,10 +843,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="8"/>
     </row>
@@ -857,11 +855,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -869,7 +867,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
@@ -879,7 +877,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
@@ -899,13 +897,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -919,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76D487F-4077-4A65-BCF0-C4300069A120}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -933,12 +931,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="A1" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -959,10 +957,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -971,10 +969,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -983,10 +981,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -995,7 +993,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
@@ -1005,10 +1003,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -1017,11 +1015,11 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -1029,10 +1027,10 @@
         <v>15</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="8"/>
     </row>
@@ -1041,13 +1039,13 @@
         <v>31</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>56</v>
+        <v>16</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -1058,17 +1056,17 @@
         <v>8</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="19" t="s">
-        <v>56</v>
+      <c r="D11" s="18" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="A13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
@@ -1089,10 +1087,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -1101,10 +1099,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -1113,13 +1111,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -1127,11 +1125,11 @@
         <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -1139,13 +1137,13 @@
         <v>30</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -1156,8 +1154,8 @@
         <v>7</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="19" t="s">
-        <v>55</v>
+      <c r="D20" s="18" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -1165,13 +1163,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -1179,13 +1177,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -1193,25 +1191,25 @@
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="13">
+      <c r="A24" s="12">
         <v>15</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>51</v>
+      <c r="B24" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -1219,25 +1217,25 @@
         <v>27</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="16">
+        <v>27</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="17">
-        <v>27</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -1251,12 +1249,12 @@
       <c r="D27" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
+      <c r="A29" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
@@ -1280,10 +1278,10 @@
         <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -1294,10 +1292,10 @@
         <v>5</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -1305,20 +1303,20 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
+      <c r="A35" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
@@ -1339,7 +1337,7 @@
         <v>19</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
@@ -1349,18 +1347,18 @@
         <v>20</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
+      <c r="A40" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
@@ -1381,10 +1379,10 @@
         <v>21</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D42" s="3"/>
     </row>
@@ -1393,10 +1391,10 @@
         <v>22</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D43" s="3"/>
     </row>
@@ -1405,10 +1403,10 @@
         <v>23</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D44" s="3"/>
     </row>
@@ -1417,13 +1415,13 @@
         <v>24</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
@@ -1431,10 +1429,10 @@
         <v>25</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D46" s="3"/>
     </row>
@@ -1443,10 +1441,10 @@
         <v>26</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D47" s="3"/>
     </row>
@@ -1455,10 +1453,10 @@
         <v>29</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D48" s="3"/>
     </row>

--- a/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
+++ b/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212C019C-2861-4885-A8F2-50F75FF206CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF76D662-825D-47C6-9323-59B7D62CA359}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{75DED707-FBFB-4074-892B-41C1EFCEBF7A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{75DED707-FBFB-4074-892B-41C1EFCEBF7A}"/>
   </bookViews>
   <sheets>
     <sheet name="개인" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="61">
   <si>
     <t>타입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,6 +225,22 @@
   </si>
   <si>
     <t>대리인 신청 위임장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행정정보공동이용사전동의서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.07.26 추가 요청 받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.07.26 삭제 요청 받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.07.26 필수 제외 요청 받음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -347,7 +363,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -407,6 +423,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B180571B-1AD6-4B13-8800-77889AFA3FCC}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -863,14 +894,16 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="7">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="20" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
@@ -904,6 +937,20 @@
       </c>
       <c r="D14" s="6" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -915,10 +962,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76D487F-4077-4A65-BCF0-C4300069A120}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1044,7 +1091,7 @@
       <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="8" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1056,7 +1103,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="8" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1095,16 +1142,16 @@
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="11">
+      <c r="A16" s="7">
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="18" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
@@ -1147,14 +1194,14 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="11">
+      <c r="A20" s="7">
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="8" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1187,16 +1234,18 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="11">
+      <c r="A23" s="9">
         <v>14</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="3"/>
+      <c r="C23" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="12">
@@ -1248,150 +1297,152 @@
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="19" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="11">
+        <v>33</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="11">
-        <v>16</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="11">
+        <v>17</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="7">
         <v>18</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="19" t="s">
+      <c r="C34" s="2"/>
+      <c r="D34" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" s="2" t="s">
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" s="2">
-        <v>19</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="19" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="2">
+        <v>20</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="2" t="s">
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="11">
-        <v>21</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>16</v>
@@ -1400,48 +1451,48 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="11">
+        <v>22</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="11">
         <v>23</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" s="5">
+      <c r="C45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="5">
         <v>24</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B46" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="6" t="s">
+      <c r="C46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" s="11">
-        <v>25</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>16</v>
@@ -1450,21 +1501,33 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="11">
+        <v>26</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="11">
         <v>29</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="3"/>
+      <c r="C49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A41:D41"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A13:D13"/>
   </mergeCells>

--- a/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
+++ b/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF76D662-825D-47C6-9323-59B7D62CA359}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CEC0A0-AFD0-4E66-A083-EEC18E97B2E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{75DED707-FBFB-4074-892B-41C1EFCEBF7A}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{75DED707-FBFB-4074-892B-41C1EFCEBF7A}"/>
   </bookViews>
   <sheets>
     <sheet name="개인" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="68">
   <si>
     <t>타입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,6 +241,34 @@
   </si>
   <si>
     <t>2021.07.26 필수 제외 요청 받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보필수동의서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.07.28 추가 요청 받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.07.28 필수 제외 요청 받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.07.12 추가 요청 받음 / 2021.07.28 필수 제외 요청 받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.07.09 추가 요청 받음 / 2021.07.28 삭제 요청 받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상근임을 증빙할 수 있는 서류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃소싱 업체 상주직원 관련 증빙서류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -363,7 +391,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -421,22 +449,31 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -753,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B180571B-1AD6-4B13-8800-77889AFA3FCC}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -782,16 +819,16 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="11">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="18" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="11">
@@ -844,16 +881,16 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="11">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="18" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="9">
@@ -901,7 +938,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="15"/>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="13" t="s">
         <v>59</v>
       </c>
     </row>
@@ -949,8 +986,22 @@
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="8" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -962,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76D487F-4077-4A65-BCF0-C4300069A120}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -973,17 +1024,17 @@
     <col min="1" max="1" width="8.796875" style="1"/>
     <col min="2" max="2" width="113.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.796875" style="1"/>
-    <col min="4" max="4" width="41.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -1082,17 +1133,15 @@
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="11">
+      <c r="A10" s="7">
         <v>31</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>54</v>
+      <c r="C10" s="7"/>
+      <c r="D10" s="18" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -1108,12 +1157,12 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
@@ -1149,7 +1198,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1180,17 +1229,15 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="11">
+      <c r="A19" s="5">
         <v>30</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>47</v>
+      <c r="C19" s="7"/>
+      <c r="D19" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -1237,13 +1284,13 @@
       <c r="A23" s="9">
         <v>14</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="21" t="s">
+      <c r="C23" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1307,227 +1354,299 @@
       <c r="C28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="19" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="11">
+        <v>34</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="11">
-        <v>16</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="11">
+        <v>16</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="11">
         <v>17</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="C34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="7">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="7">
         <v>18</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="18" t="s">
+      <c r="C35" s="2"/>
+      <c r="D35" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="11">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="26"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="27"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" s="2" t="s">
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" s="2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="2">
         <v>19</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="2">
+      <c r="C42" s="2"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="2">
         <v>20</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" s="11">
-        <v>21</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C43" s="2"/>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" s="11">
-        <v>22</v>
+      <c r="A44" s="2">
+        <v>37</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="22" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="11">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" s="5">
-        <v>24</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>45</v>
+      <c r="D45" s="22" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" s="11">
-        <v>25</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="3"/>
+      <c r="A47" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A48" s="11">
-        <v>26</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>12</v>
+      <c r="A48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="11">
+        <v>21</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" s="11">
+        <v>22</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" s="11">
+        <v>23</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" s="5">
+        <v>24</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" s="11">
+        <v>25</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" s="11">
+        <v>26</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" s="11">
         <v>29</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="3"/>
+      <c r="C55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A47:D47"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A13:D13"/>
   </mergeCells>

--- a/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
+++ b/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
@@ -1,43 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\document\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CEC0A0-AFD0-4E66-A083-EEC18E97B2E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.102.76.43786"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{75DED707-FBFB-4074-892B-41C1EFCEBF7A}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개인" sheetId="4" r:id="rId1"/>
     <sheet name="법인" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>첨부파일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>사진(등록증 게시용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>주민등록증사본, 여권사본 및 여권정보증명서, 운전면허증 사본 중 택1일</t>
@@ -56,15 +43,12 @@
   </si>
   <si>
     <t>금융상품 유형 등 위탁내용에 대한 확인서(계약서가 없거나,계약서 상에 금융상품에 대한 내용이 없는 경우)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>필수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>메모</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>결격사유없음 확인서(파산, 피한정후견인등)</t>
@@ -83,22 +67,18 @@
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>정관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>법인등기부등본</t>
   </si>
   <si>
     <t>설립, 등록 신청의 의사결정을 증명하는 서류(등록신청 관련 발기인총회, 창립주주총회 또는 이사회의 공증을 받은 의사록)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>본점의 위치 및 명칭을 기재한 서류(법인등기부에서 확인되지 않는 경우 제출)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>주주명부</t>
@@ -108,23 +88,18 @@
   </si>
   <si>
     <t>등록정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>대표자 및 임원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>전문인력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>전산인력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>대표자 이력서</t>
@@ -173,196 +148,478 @@
   </si>
   <si>
     <t>경력일 때(careerTyp = "2")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신규일 때(careerTyp = "1")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2021.07.08 삭제 요청 받음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2021.07.08 필수 제외 요청 받음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2021.07.09 추가 요청 받음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>주민등록사본</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2021.07.09 등록정보 탭으로 이동 요청 받음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>업무수행기준요건관련 서류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2021.07.09 필수 제외 요청 받음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>결격요건 확인서 등 관련서류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2021.07.12 필수 제외 요청 받음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2021.07.12 추가 요청 받음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>위탁계약서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>대리인 신청 위임장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>행정정보공동이용사전동의서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2021.07.26 추가 요청 받음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2021.07.26 삭제 요청 받음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2021.07.26 필수 제외 요청 받음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>개인정보필수동의서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2021.07.28 추가 요청 받음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2021.07.28 필수 제외 요청 받음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2021.07.12 추가 요청 받음 / 2021.07.28 필수 제외 요청 받음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2021.07.09 추가 요청 받음 / 2021.07.28 삭제 요청 받음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>상근임을 증빙할 수 있는 서류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아웃소싱 업체 상주직원 관련 증빙서류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력일 때(careerTyp = "2") / 2021.08.04 필수 제외 요청 받음</t>
+  </si>
+  <si>
+    <t>신규일 때(careerTyp = "1") / 2021.08.04 필수 제외 요청 받음</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="25">
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <strike/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <strike/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <strike/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.150000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -372,26 +629,277 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -404,13 +912,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -419,46 +927,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -476,20 +978,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="9" builtinId="11"/>
+    <cellStyle name="계산" xfId="17" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="8" builtinId="10"/>
+    <cellStyle name="백분율" xfId="3" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="20" builtinId="25"/>
+    <cellStyle name="입력" xfId="15" builtinId="20"/>
+    <cellStyle name="제목" xfId="10" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
+    <cellStyle name="좋음" xfId="21" builtinId="26"/>
+    <cellStyle name="출력" xfId="16" builtinId="21"/>
+    <cellStyle name="통화" xfId="2" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="5" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="6" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -789,22 +1332,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B180571B-1AD6-4B13-8800-77889AFA3FCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="2" max="2" width="100.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.796875" style="1"/>
-    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="2" max="2" width="100.12999725" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="1" width="8.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="30.50499916" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -818,7 +1361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -826,12 +1369,12 @@
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="11">
+    <row r="3" spans="1:4">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -840,10 +1383,10 @@
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="11">
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -852,12 +1395,12 @@
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="11">
+    <row r="5" spans="1:4">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -866,11 +1409,11 @@
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -878,9 +1421,9 @@
         <v>6</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -888,15 +1431,15 @@
         <v>7</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="9">
+    <row r="8" spans="1:4" s="4" customFormat="1">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -906,8 +1449,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="11">
+    <row r="9" spans="1:4">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -918,7 +1461,7 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -930,19 +1473,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="9">
+    <row r="11" spans="1:4">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -952,7 +1495,7 @@
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -962,11 +1505,11 @@
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="9">
+    <row r="14" spans="1:4" s="4" customFormat="1">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -976,8 +1519,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="11">
+    <row r="15" spans="1:4">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -990,8 +1533,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="11">
+    <row r="16" spans="1:4">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1000,43 +1543,43 @@
       <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="8" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76D487F-4077-4A65-BCF0-C4300069A120}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
-    <col min="2" max="2" width="113.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.796875" style="1"/>
-    <col min="4" max="4" width="57.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="1" max="1" style="1" width="8.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="113.75499725" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="1" width="8.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="57.75500107" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1050,8 +1593,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="11">
+    <row r="3" spans="1:4">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1062,8 +1605,8 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="11">
+    <row r="4" spans="1:4">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1074,8 +1617,8 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="11">
+    <row r="5" spans="1:4">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1086,7 +1629,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1096,8 +1639,8 @@
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="11">
+    <row r="7" spans="1:4">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1108,7 +1651,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -1120,8 +1663,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="11">
+    <row r="9" spans="1:4">
+      <c r="A9" s="9">
         <v>15</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1132,7 +1675,7 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4">
       <c r="A10" s="7">
         <v>31</v>
       </c>
@@ -1140,11 +1683,11 @@
         <v>55</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4">
       <c r="A11" s="7">
         <v>32</v>
       </c>
@@ -1156,15 +1699,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="23" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -1178,8 +1721,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="11">
+    <row r="15" spans="1:4">
+      <c r="A15" s="9">
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1190,7 +1733,7 @@
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4">
       <c r="A16" s="7">
         <v>8</v>
       </c>
@@ -1202,7 +1745,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4">
       <c r="A17" s="5">
         <v>9</v>
       </c>
@@ -1216,7 +1759,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4">
       <c r="A18" s="7">
         <v>10</v>
       </c>
@@ -1228,7 +1771,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4">
       <c r="A19" s="5">
         <v>30</v>
       </c>
@@ -1236,11 +1779,11 @@
         <v>48</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4">
       <c r="A20" s="7">
         <v>11</v>
       </c>
@@ -1252,8 +1795,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="11">
+    <row r="21" spans="1:4">
+      <c r="A21" s="7">
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1262,12 +1805,12 @@
       <c r="C21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="11">
+      <c r="D21" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="7">
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1276,39 +1819,39 @@
       <c r="C22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="9">
+      <c r="D22" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="5">
         <v>14</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="12">
+    <row r="24" spans="1:4">
+      <c r="A24" s="10">
         <v>15</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="13" t="s">
+      <c r="C24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4">
       <c r="A25" s="5">
         <v>27</v>
       </c>
@@ -1322,19 +1865,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="16">
+    <row r="26" spans="1:4">
+      <c r="A26" s="14">
         <v>27</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17" t="s">
+      <c r="C26" s="14"/>
+      <c r="D26" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4">
       <c r="A27" s="2">
         <v>28</v>
       </c>
@@ -1344,8 +1887,8 @@
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="11">
+    <row r="28" spans="1:4">
+      <c r="A28" s="9">
         <v>33</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1354,12 +1897,12 @@
       <c r="C28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="11">
+    <row r="29" spans="1:4">
+      <c r="A29" s="9">
         <v>34</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1368,19 +1911,19 @@
       <c r="C29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="23" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
@@ -1394,8 +1937,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="11">
+    <row r="33" spans="1:4">
+      <c r="A33" s="9">
         <v>16</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -1408,8 +1951,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="11">
+    <row r="34" spans="1:4">
+      <c r="A34" s="9">
         <v>17</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1422,7 +1965,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4">
       <c r="A35" s="7">
         <v>18</v>
       </c>
@@ -1434,7 +1977,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -1442,12 +1985,12 @@
         <v>66</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" s="11">
+    <row r="37" spans="1:4">
+      <c r="A37" s="9">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1456,25 +1999,25 @@
       <c r="C37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" s="26"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="27"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="23" t="s">
+    <row r="38" spans="1:4">
+      <c r="A38" s="24"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="25"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
         <v>0</v>
       </c>
@@ -1488,7 +2031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4">
       <c r="A42" s="2">
         <v>19</v>
       </c>
@@ -1498,7 +2041,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4">
       <c r="A43" s="2">
         <v>20</v>
       </c>
@@ -1508,7 +2051,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4">
       <c r="A44" s="2">
         <v>37</v>
       </c>
@@ -1516,12 +2059,12 @@
         <v>67</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" s="11">
+    <row r="45" spans="1:4">
+      <c r="A45" s="9">
         <v>38</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -1530,19 +2073,19 @@
       <c r="C45" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" s="23" t="s">
+    <row r="47" spans="1:4">
+      <c r="A47" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
         <v>0</v>
       </c>
@@ -1556,8 +2099,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A49" s="11">
+    <row r="49" spans="1:4">
+      <c r="A49" s="9">
         <v>21</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -1568,8 +2111,8 @@
       </c>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A50" s="11">
+    <row r="50" spans="1:4">
+      <c r="A50" s="9">
         <v>22</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -1580,8 +2123,8 @@
       </c>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A51" s="11">
+    <row r="51" spans="1:4">
+      <c r="A51" s="9">
         <v>23</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -1592,7 +2135,7 @@
       </c>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4">
       <c r="A52" s="5">
         <v>24</v>
       </c>
@@ -1606,8 +2149,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A53" s="11">
+    <row r="53" spans="1:4">
+      <c r="A53" s="9">
         <v>25</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -1618,8 +2161,8 @@
       </c>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A54" s="11">
+    <row r="54" spans="1:4">
+      <c r="A54" s="9">
         <v>26</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -1630,8 +2173,8 @@
       </c>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A55" s="11">
+    <row r="55" spans="1:4">
+      <c r="A55" s="9">
         <v>29</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -1644,14 +2187,14 @@
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A13:D13"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
+++ b/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D665B29-6EF6-4832-8719-4C484105A120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393E8D57-8B80-4A5E-AE02-144F22509A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개인" sheetId="4" r:id="rId1"/>
@@ -70,9 +70,6 @@
     <t>주민등록증 또는 주민등록 초본(성명, 주민등록번호 변경 시)</t>
   </si>
   <si>
-    <t>휴대폰 명의 확인서(휴대폰번호 변경 시)</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -338,6 +335,10 @@
   </si>
   <si>
     <t>고정사업장 증빙서류(임대차계약서 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보변경 관련 서류(개명시에는 주민등록초본 첨부 필요)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,56 +613,56 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -981,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1016,7 +1017,7 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -1027,7 +1028,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="5"/>
     </row>
@@ -1039,10 +1040,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1053,10 +1054,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>39</v>
+        <v>15</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -1078,7 +1079,7 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -1096,10 +1097,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -1112,7 +1113,7 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -1120,13 +1121,13 @@
         <v>14</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -1134,65 +1135,65 @@
         <v>15</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>15</v>
+      <c r="B13" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="20" t="s">
-        <v>89</v>
+      <c r="D13" s="19" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="29">
+      <c r="A14" s="26">
         <v>7</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>40</v>
+      <c r="C14" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="29">
+      <c r="A15" s="26">
         <v>10</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="30" t="s">
-        <v>53</v>
+      <c r="C15" s="28"/>
+      <c r="D15" s="27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="29">
+      <c r="A16" s="26">
         <v>13</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>40</v>
+      <c r="C16" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1206,7 +1207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
@@ -1220,12 +1221,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="A1" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -1246,10 +1247,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -1258,10 +1259,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -1270,10 +1271,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -1282,7 +1283,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
@@ -1292,10 +1293,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -1304,11 +1305,11 @@
         <v>6</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -1316,10 +1317,10 @@
         <v>15</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -1328,11 +1329,11 @@
         <v>31</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -1344,16 +1345,16 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="A13" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
@@ -1374,10 +1375,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -1386,11 +1387,11 @@
         <v>8</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -1398,11 +1399,11 @@
         <v>10</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -1410,11 +1411,11 @@
         <v>27</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -1422,13 +1423,13 @@
         <v>33</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -1436,13 +1437,13 @@
         <v>34</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -1454,7 +1455,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -1472,13 +1473,13 @@
         <v>12</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -1486,76 +1487,76 @@
         <v>13</v>
       </c>
       <c r="B24" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="26">
+        <v>9</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="26">
+        <v>30</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="26">
+        <v>14</v>
+      </c>
+      <c r="B27" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="29">
-        <v>9</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="29">
-        <v>30</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="29">
-        <v>14</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>53</v>
+      <c r="C27" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="29">
+      <c r="A28" s="26">
         <v>27</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>40</v>
+      <c r="C28" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
+      <c r="A30" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
@@ -1579,10 +1580,10 @@
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -1593,22 +1594,22 @@
         <v>5</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>39</v>
+        <v>15</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="4">
         <v>18</v>
       </c>
-      <c r="B34" s="17" t="s">
-        <v>90</v>
+      <c r="B34" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -1616,11 +1617,11 @@
         <v>35</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -1628,13 +1629,13 @@
         <v>36</v>
       </c>
       <c r="B36" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -1644,12 +1645,12 @@
       <c r="D37" s="12"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
+      <c r="A39" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
@@ -1669,8 +1670,8 @@
       <c r="A41" s="2">
         <v>19</v>
       </c>
-      <c r="B41" s="17" t="s">
-        <v>91</v>
+      <c r="B41" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
@@ -1679,8 +1680,8 @@
       <c r="A42" s="2">
         <v>20</v>
       </c>
-      <c r="B42" s="17" t="s">
-        <v>92</v>
+      <c r="B42" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="3"/>
@@ -1690,11 +1691,11 @@
         <v>37</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -1702,22 +1703,22 @@
         <v>38</v>
       </c>
       <c r="B44" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
+      <c r="A46" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
@@ -1738,10 +1739,10 @@
         <v>21</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D48" s="3"/>
     </row>
@@ -1749,11 +1750,11 @@
       <c r="A49" s="6">
         <v>22</v>
       </c>
-      <c r="B49" s="17" t="s">
-        <v>93</v>
+      <c r="B49" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49" s="3"/>
     </row>
@@ -1761,11 +1762,11 @@
       <c r="A50" s="6">
         <v>23</v>
       </c>
-      <c r="B50" s="17" t="s">
-        <v>94</v>
+      <c r="B50" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D50" s="3"/>
     </row>
@@ -1774,10 +1775,10 @@
         <v>29</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D51" s="3"/>
     </row>
@@ -1786,10 +1787,10 @@
         <v>25</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D52" s="3"/>
     </row>
@@ -1801,22 +1802,22 @@
         <v>12</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D53" s="3"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A54" s="29">
+      <c r="A54" s="26">
         <v>24</v>
       </c>
-      <c r="B54" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="30" t="s">
-        <v>40</v>
+      <c r="B54" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1867,8 +1868,8 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>79</v>
+      <c r="B2" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="5"/>
@@ -1877,40 +1878,40 @@
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="17">
+        <v>4</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="18">
-        <v>4</v>
-      </c>
-      <c r="B4" s="17" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="17">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="22" t="s">
+      <c r="C5" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="18">
-        <v>3</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -1921,35 +1922,35 @@
         <v>6</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="20" t="s">
-        <v>84</v>
+      <c r="D6" s="19" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="19">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>85</v>
+      <c r="C7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="19">
+      <c r="A8" s="18">
         <v>12</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="25"/>
+      <c r="B8" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1979,12 +1980,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="A1" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -2005,10 +2006,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -2017,10 +2018,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -2028,11 +2029,11 @@
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>76</v>
+      <c r="B5" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -2040,8 +2041,8 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>77</v>
+      <c r="B6" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
@@ -2051,10 +2052,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -2063,7 +2064,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -2072,47 +2073,47 @@
       <c r="A9" s="6">
         <v>15</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>78</v>
+      <c r="B9" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="19">
+      <c r="A10" s="18">
         <v>31</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="19">
+      <c r="A11" s="18">
         <v>32</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="25"/>
+      <c r="B11" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="32"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="A13" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
@@ -2132,11 +2133,11 @@
       <c r="A15" s="6">
         <v>7</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>64</v>
+      <c r="B15" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2144,99 +2145,99 @@
       <c r="A16" s="6">
         <v>34</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="17">
+        <v>13</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="18">
-        <v>13</v>
-      </c>
-      <c r="B17" s="17" t="s">
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="18">
+        <v>12</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="22" t="s">
+      <c r="C18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="19">
-        <v>12</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <v>8</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>68</v>
+      <c r="B19" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="20" t="s">
-        <v>84</v>
+      <c r="D19" s="19" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="19">
+      <c r="A20" s="18">
         <v>11</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>85</v>
+      <c r="C20" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="19">
+      <c r="A21" s="18">
         <v>28</v>
       </c>
-      <c r="B21" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="25"/>
+      <c r="B21" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="32"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="6">
         <v>27</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>83</v>
+      <c r="B22" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
+      <c r="A24" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
@@ -2253,72 +2254,72 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="19">
+      <c r="A26" s="18">
         <v>17</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="18">
+        <v>16</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="22" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="21" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="19">
-        <v>16</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="22" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
         <v>18</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>68</v>
+      <c r="B28" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="20" t="s">
-        <v>84</v>
+      <c r="D28" s="19" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="27">
+      <c r="A29" s="24">
         <v>39</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="24" t="s">
-        <v>85</v>
+      <c r="D29" s="31" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="27">
+      <c r="A30" s="24">
         <v>40</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>69</v>
+      <c r="B30" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="25"/>
+      <c r="D30" s="32"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="6">
         <v>35</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>70</v>
+      <c r="B31" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" s="8"/>
     </row>
@@ -2327,10 +2328,10 @@
         <v>36</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" s="8"/>
     </row>
@@ -2341,12 +2342,12 @@
       <c r="D33" s="12"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
+      <c r="A35" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
@@ -2366,11 +2367,11 @@
       <c r="A37" s="6">
         <v>19</v>
       </c>
-      <c r="B37" s="17" t="s">
-        <v>71</v>
+      <c r="B37" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2378,11 +2379,11 @@
       <c r="A38" s="6">
         <v>20</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>70</v>
+      <c r="B38" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38" s="3"/>
     </row>
@@ -2390,8 +2391,8 @@
       <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="17" t="s">
-        <v>72</v>
+      <c r="B39" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="8"/>
@@ -2400,21 +2401,21 @@
       <c r="A40" s="6">
         <v>38</v>
       </c>
-      <c r="B40" s="17" t="s">
-        <v>65</v>
+      <c r="B40" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40" s="8"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
+      <c r="A42" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
@@ -2434,11 +2435,11 @@
       <c r="A44" s="6">
         <v>21</v>
       </c>
-      <c r="B44" s="17" t="s">
-        <v>73</v>
+      <c r="B44" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D44" s="3"/>
     </row>
@@ -2446,11 +2447,11 @@
       <c r="A45" s="6">
         <v>22</v>
       </c>
-      <c r="B45" s="17" t="s">
-        <v>74</v>
+      <c r="B45" s="16" t="s">
+        <v>73</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45" s="3"/>
     </row>
@@ -2458,23 +2459,23 @@
       <c r="A46" s="6">
         <v>23</v>
       </c>
-      <c r="B46" s="17" t="s">
-        <v>75</v>
+      <c r="B46" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" s="27">
+      <c r="A47" s="24">
         <v>41</v>
       </c>
-      <c r="B47" s="17" t="s">
-        <v>83</v>
+      <c r="B47" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D47" s="3"/>
     </row>

--- a/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
+++ b/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393E8D57-8B80-4A5E-AE02-144F22509A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B97ADA9-3BC8-4F50-971C-96CA85443878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="590" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개인" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="96">
   <si>
     <t>타입</t>
   </si>
@@ -340,6 +340,10 @@
   <si>
     <t>정보변경 관련 서류(개명시에는 주민등록초본 첨부 필요)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위탁계약서</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -982,7 +986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -1839,7 +1843,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1930,8 +1934,8 @@
       <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>7</v>
+      <c r="B7" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>86</v>
@@ -1966,8 +1970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F413CD3-0CF5-4CB5-91C1-B989FEA36BA3}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2085,8 +2089,8 @@
       <c r="A10" s="18">
         <v>31</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>7</v>
+      <c r="B10" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>86</v>
@@ -2197,8 +2201,8 @@
       <c r="A20" s="18">
         <v>11</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>7</v>
+      <c r="B20" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>86</v>
@@ -2223,7 +2227,7 @@
       <c r="A22" s="6">
         <v>27</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="14" t="s">
         <v>82</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -2293,10 +2297,12 @@
       <c r="A29" s="24">
         <v>39</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="2"/>
+      <c r="B29" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="D29" s="31" t="s">
         <v>84</v>
       </c>
@@ -2305,10 +2311,12 @@
       <c r="A30" s="24">
         <v>40</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="D30" s="32"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">

--- a/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
+++ b/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B97ADA9-3BC8-4F50-971C-96CA85443878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56C2D21-A48A-4674-A401-AA744CF12D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="590" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="590" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개인" sheetId="4" r:id="rId1"/>
@@ -1211,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1971,7 +1971,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
+++ b/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56C2D21-A48A-4674-A401-AA744CF12D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27844BC-8FD8-41BE-9481-93FF6BEDE200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="590" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개인" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="98">
   <si>
     <t>타입</t>
   </si>
@@ -344,6 +344,14 @@
   <si>
     <t>위탁계약서</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경요청 시 첨부 -&gt; 받는 시점 확인중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -451,7 +459,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,6 +511,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,7 +582,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -658,6 +672,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -986,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1209,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1224,15 +1244,15 @@
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1246,7 +1266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1258,7 +1278,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -1270,7 +1290,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1282,7 +1302,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1292,7 +1312,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1304,7 +1324,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1316,7 +1336,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="6">
         <v>15</v>
       </c>
@@ -1328,7 +1348,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>31</v>
       </c>
@@ -1340,7 +1360,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>32</v>
       </c>
@@ -1352,15 +1372,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -1374,7 +1394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="6">
         <v>7</v>
       </c>
@@ -1385,8 +1405,11 @@
         <v>15</v>
       </c>
       <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E15" s="31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>8</v>
       </c>
@@ -1397,6 +1420,9 @@
       <c r="D16" s="5" t="s">
         <v>53</v>
       </c>
+      <c r="E16" s="31" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
@@ -1555,12 +1581,12 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
@@ -1649,12 +1675,12 @@
       <c r="D37" s="12"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
@@ -1717,12 +1743,12 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
@@ -1840,17 +1866,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A2830E-7AFD-4798-A62B-AA3F14FFC778}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="100.09765625" customWidth="1"/>
     <col min="3" max="3" width="8.796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1940,7 +1966,7 @@
       <c r="C7" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="33" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1954,7 +1980,19 @@
       <c r="C8" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="34"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="4">
+        <v>11</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="30" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1962,7 +2000,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1970,8 +2008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F413CD3-0CF5-4CB5-91C1-B989FEA36BA3}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1984,12 +2022,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -2095,7 +2133,7 @@
       <c r="C10" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="33" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2109,15 +2147,15 @@
       <c r="C11" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="32"/>
+      <c r="D11" s="34"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
@@ -2207,7 +2245,7 @@
       <c r="C20" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="33" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2221,7 +2259,7 @@
       <c r="C21" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="32"/>
+      <c r="D21" s="34"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="6">
@@ -2236,12 +2274,12 @@
       <c r="D22" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
@@ -2264,7 +2302,9 @@
       <c r="B26" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="D26" s="21" t="s">
         <v>80</v>
       </c>
@@ -2276,7 +2316,9 @@
       <c r="B27" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="D27" s="21" t="s">
         <v>81</v>
       </c>
@@ -2303,7 +2345,7 @@
       <c r="C29" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="33" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2317,7 +2359,7 @@
       <c r="C30" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="32"/>
+      <c r="D30" s="34"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="6">
@@ -2350,12 +2392,12 @@
       <c r="D33" s="12"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
@@ -2418,12 +2460,12 @@
       <c r="D40" s="8"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">

--- a/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
+++ b/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27844BC-8FD8-41BE-9481-93FF6BEDE200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29DC8DC-CBD1-4DB3-9D64-C9B6F64D7CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개인" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="97">
   <si>
     <t>타입</t>
   </si>
@@ -347,10 +347,6 @@
   </si>
   <si>
     <t>변경요청 시 첨부 -&gt; 받는 시점 확인중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅅ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1006,7 +1002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1231,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1405,9 +1401,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="31" t="s">
-        <v>97</v>
-      </c>
+      <c r="E15" s="31"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
@@ -1420,9 +1414,7 @@
       <c r="D16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="31" t="s">
-        <v>97</v>
-      </c>
+      <c r="E16" s="31"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
@@ -2008,8 +2000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F413CD3-0CF5-4CB5-91C1-B989FEA36BA3}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:A46"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
+++ b/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29DC8DC-CBD1-4DB3-9D64-C9B6F64D7CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6231AE71-47C5-4227-954A-8DEE19B6D720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개인" sheetId="4" r:id="rId1"/>
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1227,7 +1227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>

--- a/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
+++ b/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6231AE71-47C5-4227-954A-8DEE19B6D720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151A4786-726F-4818-9F12-6B3BD62A0453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="590" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개인" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="100">
   <si>
     <t>타입</t>
   </si>
@@ -348,6 +348,18 @@
   <si>
     <t>변경요청 시 첨부 -&gt; 받는 시점 확인중</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보수정 페이지에서 첨부</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름 변경 시 증빙서류</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>주민등록번호 변경 시 증빙서류</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -517,7 +529,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -566,6 +578,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -578,7 +616,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -669,9 +707,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -683,6 +718,33 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1002,7 +1064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -1241,12 +1303,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -1369,12 +1431,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
@@ -1401,7 +1463,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="31"/>
+      <c r="E15" s="30"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
@@ -1414,7 +1476,7 @@
       <c r="D16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="31"/>
+      <c r="E16" s="30"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
@@ -1573,12 +1635,12 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
@@ -1667,12 +1729,12 @@
       <c r="D37" s="12"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
@@ -1735,12 +1797,12 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
@@ -1858,10 +1920,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A2830E-7AFD-4798-A62B-AA3F14FFC778}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1958,32 +2020,56 @@
       <c r="C7" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="32" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="18">
+      <c r="A8" s="37">
         <v>12</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="40"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="4">
+      <c r="A9" s="41">
         <v>11</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="30" t="s">
+      <c r="C9" s="41"/>
+      <c r="D9" s="42" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="34">
+        <v>13</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="34">
+        <v>14</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="36" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2014,12 +2100,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -2125,7 +2211,7 @@
       <c r="C10" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="32" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2139,15 +2225,15 @@
       <c r="C11" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="33"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
@@ -2237,7 +2323,7 @@
       <c r="C20" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="32" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2251,7 +2337,7 @@
       <c r="C21" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="34"/>
+      <c r="D21" s="33"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="6">
@@ -2266,12 +2352,12 @@
       <c r="D22" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
@@ -2337,7 +2423,7 @@
       <c r="C29" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="32" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2351,7 +2437,7 @@
       <c r="C30" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="34"/>
+      <c r="D30" s="33"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="6">
@@ -2384,12 +2470,12 @@
       <c r="D33" s="12"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
@@ -2452,12 +2538,12 @@
       <c r="D40" s="8"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">

--- a/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
+++ b/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151A4786-726F-4818-9F12-6B3BD62A0453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B75FB5-4F42-400C-BE4A-0733BEEA0621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="590" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="590" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개인" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="111">
   <si>
     <t>타입</t>
   </si>
@@ -238,10 +238,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>상근입증서류</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>자격확인서류 또는 경력증명서</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -250,19 +246,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>물적설비 증빙서류</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>사무공간 배치현황</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>고정사업장 증빙서류</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>설립,등록 신청의 의사록</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -359,6 +347,62 @@
   </si>
   <si>
     <t>주민등록번호 변경 시 증빙서류</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2개중 1개는 필수</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>평가인증서 사본</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>주주명부(법인인감날인 필수)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>정관(공증필요)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>설립,등록 신청의 의사결정을 증명할 수 있는 이사회 또는 주주총회 의사록(공증필요)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상근입증서류(건강보험자격득실확인서)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보 필수 동의서(전산전문인력)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보 필수 동의서(업무수행인력)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>결격사유 없음 확인서(법인)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>물적설비내역 확인서</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>물적설비내역 증빙서류</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업신용정보 조회서(최근 3년간 이력 확인 필요)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>법인인감증명서</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인신용정보 보관 전산설비 관련 확인서</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -366,7 +410,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,6 +505,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -616,7 +669,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,41 +763,68 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1231,11 +1311,11 @@
         <v>11</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -1289,7 +1369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -1303,12 +1383,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -1431,12 +1511,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
@@ -1635,12 +1715,12 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
@@ -1689,7 +1769,7 @@
         <v>18</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="5" t="s">
@@ -1729,12 +1809,12 @@
       <c r="D37" s="12"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
@@ -1755,7 +1835,7 @@
         <v>19</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
@@ -1765,7 +1845,7 @@
         <v>20</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="3"/>
@@ -1797,12 +1877,12 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
@@ -1835,7 +1915,7 @@
         <v>22</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>15</v>
@@ -1847,7 +1927,7 @@
         <v>23</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
@@ -1922,8 +2002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A2830E-7AFD-4798-A62B-AA3F14FFC778}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1953,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="5"/>
@@ -1963,7 +2043,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -1975,13 +2055,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1992,10 +2072,10 @@
         <v>66</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -2007,7 +2087,7 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -2015,61 +2095,61 @@
         <v>6</v>
       </c>
       <c r="B7" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="34">
+        <v>12</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="41"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="37">
+        <v>11</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="31">
+        <v>13</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="37">
-        <v>12</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="40"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="41">
-        <v>11</v>
-      </c>
-      <c r="B9" s="35" t="s">
+      <c r="C14" s="31"/>
+      <c r="D14" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="31">
+        <v>14</v>
+      </c>
+      <c r="B15" s="32" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="34">
-        <v>13</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="36" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="34">
-        <v>14</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="36" t="s">
-        <v>97</v>
+      <c r="C15" s="31"/>
+      <c r="D15" s="33" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2084,10 +2164,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F413CD3-0CF5-4CB5-91C1-B989FEA36BA3}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2100,12 +2180,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -2125,8 +2205,8 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>16</v>
+      <c r="B3" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -2150,7 +2230,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -2162,7 +2242,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
@@ -2171,8 +2251,8 @@
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>20</v>
+      <c r="B7" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -2194,7 +2274,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>15</v>
@@ -2206,13 +2286,13 @@
         <v>31</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -2223,17 +2303,17 @@
         <v>68</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="33"/>
+        <v>83</v>
+      </c>
+      <c r="D11" s="42"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
@@ -2284,7 +2364,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -2298,7 +2378,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -2308,9 +2388,11 @@
       <c r="B19" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="D19" s="19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -2318,13 +2400,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -2335,16 +2417,16 @@
         <v>68</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="33"/>
+        <v>83</v>
+      </c>
+      <c r="D21" s="42"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="6">
         <v>27</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>15</v>
@@ -2352,12 +2434,12 @@
       <c r="D22" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
@@ -2381,10 +2463,10 @@
         <v>65</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -2395,10 +2477,10 @@
         <v>66</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -2410,7 +2492,7 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -2418,13 +2500,13 @@
         <v>39</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -2435,16 +2517,16 @@
         <v>68</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="33"/>
+        <v>83</v>
+      </c>
+      <c r="D30" s="42"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="6">
         <v>35</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>15</v>
@@ -2455,8 +2537,8 @@
       <c r="A32" s="6">
         <v>36</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>54</v>
+      <c r="B32" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>15</v>
@@ -2470,12 +2552,12 @@
       <c r="D33" s="12"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
@@ -2496,7 +2578,7 @@
         <v>19</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>15</v>
@@ -2508,7 +2590,7 @@
         <v>20</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
@@ -2520,7 +2602,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="8"/>
@@ -2530,7 +2612,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>15</v>
@@ -2538,12 +2620,12 @@
       <c r="D40" s="8"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
@@ -2560,11 +2642,11 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" s="6">
-        <v>21</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>72</v>
+      <c r="A44" s="44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>106</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>15</v>
@@ -2573,10 +2655,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>15</v>
@@ -2585,27 +2667,73 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="6">
+        <v>22</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="6">
         <v>23</v>
       </c>
-      <c r="B46" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" s="24">
+      <c r="B47" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" s="45">
         <v>41</v>
       </c>
-      <c r="B47" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="3"/>
+      <c r="B48" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="48"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="31">
+        <v>29</v>
+      </c>
+      <c r="B49" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="50"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" s="51">
+        <v>43</v>
+      </c>
+      <c r="B50" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="50"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" s="51">
+        <v>44</v>
+      </c>
+      <c r="B51" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="31"/>
+      <c r="D51" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
+++ b/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B75FB5-4F42-400C-BE4A-0733BEEA0621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA09F0F-0BA6-47F4-86A4-FF0D6C96DEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="590" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="590" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개인" sheetId="4" r:id="rId1"/>
     <sheet name="법인" sheetId="1" r:id="rId2"/>
-    <sheet name="개인-FO" sheetId="6" r:id="rId3"/>
-    <sheet name="법인-FO" sheetId="5" r:id="rId4"/>
+    <sheet name="(고도화)개인" sheetId="6" r:id="rId3"/>
+    <sheet name="(고도화)법인" sheetId="5" r:id="rId4"/>
+    <sheet name="(고도화)회원정보수정" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="117">
   <si>
     <t>타입</t>
   </si>
@@ -334,75 +335,99 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>변경요청 시 첨부 -&gt; 받는 시점 확인중</t>
+    <t>2개중 1개는 필수</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>평가인증서 사본</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>주주명부(법인인감날인 필수)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>정관(공증필요)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>설립,등록 신청의 의사결정을 증명할 수 있는 이사회 또는 주주총회 의사록(공증필요)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상근입증서류(건강보험자격득실확인서)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보 필수 동의서(전산전문인력)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보 필수 동의서(업무수행인력)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>결격사유 없음 확인서(법인)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>물적설비내역 확인서</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>물적설비내역 증빙서류</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업신용정보 조회서(최근 3년간 이력 확인 필요)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>법인인감증명서</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인신용정보 보관 전산설비 관련 확인서</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대폰 가입사실확인서(통신사 발급)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원정보수정 페이지에서 첨부</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름 변경 시 증빙서류</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>주민등록번호 변경 시 증빙서류</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2개중 1개는 필수</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>평가인증서 사본</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>주주명부(법인인감날인 필수)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>정관(공증필요)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>설립,등록 신청의 의사결정을 증명할 수 있는 이사회 또는 주주총회 의사록(공증필요)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>상근입증서류(건강보험자격득실확인서)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인정보 필수 동의서(전산전문인력)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인정보 필수 동의서(업무수행인력)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>결격사유 없음 확인서(법인)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>물적설비내역 확인서</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>물적설비내역 증빙서류</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업신용정보 조회서(최근 3년간 이력 확인 필요)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>법인인감증명서</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인신용정보 보관 전산설비 관련 확인서</t>
+    <t>주민등록등본(초본)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 - 회원정보수정 페이지에서 첨부(이름, 주민등록번호 변경 시)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>법인등기부등본</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>법인 - 회원정보수정 페이지에서 첨부(대표자 정보 변경 시)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>본국 감독당국의 결격요건,범죄이력 확인서류(공증필요)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>본국 감독당국의 결격요건,범죄이력 확인서류의 번역본</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>48,49로 분리됨(2021.11.25)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>전산전문인력 업무위탁 계약서</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>전산전문인력 확인서</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -410,7 +435,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,6 +539,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -669,7 +703,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -787,6 +821,39 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -799,32 +866,32 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1369,7 +1436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -1383,12 +1450,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -1511,12 +1578,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
@@ -1715,12 +1782,12 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
@@ -1809,12 +1876,12 @@
       <c r="D37" s="12"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
@@ -1877,12 +1944,12 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
@@ -2000,17 +2067,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A2830E-7AFD-4798-A62B-AA3F14FFC778}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="100.09765625" customWidth="1"/>
     <col min="3" max="3" width="8.796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2055,7 +2122,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>82</v>
@@ -2100,8 +2167,8 @@
       <c r="C7" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="40" t="s">
-        <v>97</v>
+      <c r="D7" s="51" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -2114,42 +2181,50 @@
       <c r="C8" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="41"/>
+      <c r="D8" s="52"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="37">
-        <v>11</v>
+      <c r="A9" s="48">
+        <v>15</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="31">
-        <v>13</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="31">
-        <v>14</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="33" t="s">
-        <v>94</v>
+        <v>64</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="46"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="59">
+        <v>17</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="49"/>
+      <c r="D10" s="46"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="59">
+        <v>18</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="49"/>
+      <c r="D11" s="46"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="37">
+        <v>16</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2164,10 +2239,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F413CD3-0CF5-4CB5-91C1-B989FEA36BA3}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2180,12 +2255,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -2206,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -2230,7 +2305,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -2252,7 +2327,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -2291,7 +2366,7 @@
       <c r="C10" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="51" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2305,15 +2380,15 @@
       <c r="C11" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="42"/>
+      <c r="D11" s="53"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
@@ -2405,7 +2480,7 @@
       <c r="C20" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="51" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2419,335 +2494,438 @@
       <c r="C21" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="42"/>
+      <c r="D21" s="53"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="6">
+      <c r="A22" s="55">
         <v>27</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="8"/>
+      <c r="C22" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="57"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="59">
+        <v>46</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="58"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="59">
+        <v>47</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="58"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="18">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="18">
         <v>17</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B28" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C28" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D28" s="21" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="18">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="18">
         <v>16</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B29" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C29" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D29" s="21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="4">
         <v>18</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B30" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="19" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="24">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="24">
         <v>39</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B31" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C31" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="D31" s="51" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="24">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="24">
         <v>40</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B32" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C32" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="42"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="6">
+      <c r="D32" s="53"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="6">
         <v>35</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="6">
+      <c r="B33" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="6">
         <v>36</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="11"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="12"/>
+      <c r="B34" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="11"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="12"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" s="2" t="s">
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" s="6">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="6">
         <v>19</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B39" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" s="6">
-        <v>20</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="2">
-        <v>37</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="8"/>
+      <c r="C39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="6">
+        <v>20</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="60">
+        <v>37</v>
+      </c>
+      <c r="B41" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="60"/>
+      <c r="D41" s="62" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="55">
         <v>38</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B42" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="57"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="59">
+        <v>48</v>
+      </c>
+      <c r="B43" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="37"/>
+      <c r="D43" s="58"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="59">
+        <v>49</v>
+      </c>
+      <c r="B44" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="37"/>
+      <c r="D44" s="58"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" s="40">
+        <v>42</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="6">
+        <v>21</v>
+      </c>
+      <c r="B49" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="8"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" s="44">
-        <v>42</v>
-      </c>
-      <c r="B44" s="43" t="s">
+      <c r="C49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" s="6">
+        <v>22</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" s="6">
+        <v>23</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" s="41">
+        <v>41</v>
+      </c>
+      <c r="B52" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="44"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" s="31">
+        <v>29</v>
+      </c>
+      <c r="B53" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="46"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" s="47">
+        <v>43</v>
+      </c>
+      <c r="B54" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="46"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" s="47">
+        <v>44</v>
+      </c>
+      <c r="B55" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" s="6">
-        <v>21</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" s="6">
-        <v>22</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" s="6">
-        <v>23</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A48" s="45">
-        <v>41</v>
-      </c>
-      <c r="B48" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="48"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A49" s="31">
-        <v>29</v>
-      </c>
-      <c r="B49" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="50"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A50" s="51">
-        <v>43</v>
-      </c>
-      <c r="B50" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="50"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A51" s="51">
-        <v>44</v>
-      </c>
-      <c r="B51" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" s="31"/>
-      <c r="D51" s="50"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A46:D46"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0625494A-B0B4-48FD-83BC-FC50CE783399}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="100.09765625" customWidth="1"/>
+    <col min="3" max="3" width="8.796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="63.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="31">
+        <v>11</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="31">
+        <v>45</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
+++ b/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA09F0F-0BA6-47F4-86A4-FF0D6C96DEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5139E81-E66F-4328-B8FA-175121132A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="590" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="118">
   <si>
     <t>타입</t>
   </si>
@@ -428,6 +428,10 @@
   </si>
   <si>
     <t>전산전문인력 확인서</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>영위하는 다른 업종에 대한 증빙서류(허가증,등록증 등)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -616,7 +620,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -691,6 +695,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -703,7 +722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -854,6 +873,36 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -865,33 +914,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1450,12 +1472,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -1578,12 +1600,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
@@ -1782,12 +1804,12 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
@@ -1876,12 +1898,12 @@
       <c r="D37" s="12"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="50" t="s">
+      <c r="A39" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
@@ -1944,12 +1966,12 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" s="50" t="s">
+      <c r="A46" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
@@ -2070,7 +2092,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2167,7 +2189,7 @@
       <c r="C7" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="61" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2181,7 +2203,7 @@
       <c r="C8" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="52"/>
+      <c r="D8" s="62"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="48">
@@ -2196,20 +2218,20 @@
       <c r="D9" s="46"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="59">
+      <c r="A10" s="54">
         <v>17</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="32" t="s">
         <v>112</v>
       </c>
       <c r="C10" s="49"/>
       <c r="D10" s="46"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="59">
+      <c r="A11" s="54">
         <v>18</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="32" t="s">
         <v>113</v>
       </c>
       <c r="C11" s="49"/>
@@ -2241,8 +2263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F413CD3-0CF5-4CB5-91C1-B989FEA36BA3}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2255,12 +2277,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -2338,8 +2360,8 @@
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>21</v>
+      <c r="B8" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -2366,7 +2388,7 @@
       <c r="C10" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="61" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2380,15 +2402,15 @@
       <c r="C11" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="53"/>
+      <c r="D11" s="63"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
@@ -2480,7 +2502,7 @@
       <c r="C20" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="61" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2494,47 +2516,47 @@
       <c r="C21" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="53"/>
+      <c r="D21" s="63"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="55">
+      <c r="A22" s="50">
         <v>27</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="51" t="s">
         <v>79</v>
       </c>
       <c r="C22" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="57"/>
+      <c r="D22" s="52"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="59">
+      <c r="A23" s="54">
         <v>46</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="42" t="s">
         <v>112</v>
       </c>
       <c r="C23" s="31"/>
-      <c r="D23" s="58"/>
+      <c r="D23" s="53"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="59">
+      <c r="A24" s="54">
         <v>47</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="59" t="s">
         <v>113</v>
       </c>
       <c r="C24" s="31"/>
-      <c r="D24" s="58"/>
+      <c r="D24" s="53"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
@@ -2600,7 +2622,7 @@
       <c r="C31" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="51" t="s">
+      <c r="D31" s="61" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2614,7 +2636,7 @@
       <c r="C32" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="53"/>
+      <c r="D32" s="63"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="6">
@@ -2647,12 +2669,12 @@
       <c r="D35" s="12"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
@@ -2669,43 +2691,43 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="6">
+      <c r="A39" s="4">
         <v>19</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>15</v>
+      <c r="C39" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="6">
+      <c r="A40" s="4">
         <v>20</v>
       </c>
       <c r="B40" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>15</v>
+      <c r="C40" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="60">
+      <c r="A41" s="55">
         <v>37</v>
       </c>
-      <c r="B41" s="61" t="s">
+      <c r="B41" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="62" t="s">
+      <c r="C41" s="55"/>
+      <c r="D41" s="57" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="55">
+      <c r="A42" s="50">
         <v>38</v>
       </c>
       <c r="B42" s="42" t="s">
@@ -2714,35 +2736,39 @@
       <c r="C42" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="57"/>
+      <c r="D42" s="52"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" s="59">
+      <c r="A43" s="54">
         <v>48</v>
       </c>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="58"/>
+      <c r="C43" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="53"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" s="59">
+      <c r="A44" s="54">
         <v>49</v>
       </c>
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="58"/>
+      <c r="C44" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="53"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" s="50" t="s">
+      <c r="A46" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">

--- a/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
+++ b/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5139E81-E66F-4328-B8FA-175121132A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641F728F-2DBA-4803-93B9-EBC39366FF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="590" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="590" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개인" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="118">
   <si>
     <t>타입</t>
   </si>
@@ -284,10 +284,6 @@
   </si>
   <si>
     <t>경력 선택</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력 선택(2개중 1개는 필수)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -432,6 +428,10 @@
   </si>
   <si>
     <t>영위하는 다른 업종에 대한 증빙서류(허가증,등록증 등)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력 선택(3개중 1개는 필수)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1400,11 +1400,11 @@
         <v>11</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -1858,7 +1858,7 @@
         <v>18</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="5" t="s">
@@ -1924,7 +1924,7 @@
         <v>19</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
@@ -1934,7 +1934,7 @@
         <v>20</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="3"/>
@@ -2004,7 +2004,7 @@
         <v>22</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>15</v>
@@ -2016,7 +2016,7 @@
         <v>23</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
@@ -2144,10 +2144,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>77</v>
@@ -2161,7 +2161,7 @@
         <v>66</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>78</v>
@@ -2184,13 +2184,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="61" t="s">
         <v>92</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="61" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -2201,7 +2201,7 @@
         <v>68</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="62"/>
     </row>
@@ -2213,7 +2213,7 @@
         <v>64</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="46"/>
     </row>
@@ -2222,7 +2222,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" s="49"/>
       <c r="D10" s="46"/>
@@ -2232,7 +2232,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11" s="49"/>
       <c r="D11" s="46"/>
@@ -2242,11 +2242,11 @@
         <v>16</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2263,8 +2263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F413CD3-0CF5-4CB5-91C1-B989FEA36BA3}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2303,7 +2303,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -2327,7 +2327,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -2349,7 +2349,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -2361,7 +2361,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -2383,13 +2383,13 @@
         <v>31</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="61" t="s">
         <v>83</v>
-      </c>
-      <c r="D10" s="61" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -2400,7 +2400,7 @@
         <v>68</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="63"/>
     </row>
@@ -2482,39 +2482,37 @@
       <c r="A19" s="4">
         <v>8</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="23" t="s">
         <v>67</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="D19" s="61" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="18">
+      <c r="A20" s="4">
         <v>11</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="61" t="s">
-        <v>81</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D20" s="62"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="18">
+      <c r="A21" s="4">
         <v>28</v>
       </c>
       <c r="B21" s="23" t="s">
         <v>68</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" s="63"/>
     </row>
@@ -2535,7 +2533,7 @@
         <v>46</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C23" s="31"/>
       <c r="D23" s="53"/>
@@ -2545,7 +2543,7 @@
         <v>47</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="53"/>
@@ -2580,7 +2578,7 @@
         <v>65</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>77</v>
@@ -2594,7 +2592,7 @@
         <v>66</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" s="21" t="s">
         <v>78</v>
@@ -2604,12 +2602,14 @@
       <c r="A30" s="4">
         <v>18</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="19" t="s">
-        <v>80</v>
+      <c r="C30" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="61" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -2617,14 +2617,12 @@
         <v>39</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="61" t="s">
-        <v>81</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D31" s="62"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="24">
@@ -2634,7 +2632,7 @@
         <v>68</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D32" s="63"/>
     </row>
@@ -2643,7 +2641,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>15</v>
@@ -2655,7 +2653,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>15</v>
@@ -2691,14 +2689,14 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="4">
+      <c r="A39" s="50">
         <v>19</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D39" s="3"/>
     </row>
@@ -2707,10 +2705,10 @@
         <v>20</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D40" s="3"/>
     </row>
@@ -2723,7 +2721,7 @@
       </c>
       <c r="C41" s="55"/>
       <c r="D41" s="57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
@@ -2731,7 +2729,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42" s="43" t="s">
         <v>15</v>
@@ -2743,10 +2741,10 @@
         <v>48</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C43" s="58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D43" s="53"/>
     </row>
@@ -2755,10 +2753,10 @@
         <v>49</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C44" s="58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D44" s="53"/>
     </row>
@@ -2789,7 +2787,7 @@
         <v>42</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
@@ -2801,7 +2799,7 @@
         <v>21</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>15</v>
@@ -2837,7 +2835,7 @@
         <v>41</v>
       </c>
       <c r="B52" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C52" s="43" t="s">
         <v>15</v>
@@ -2849,7 +2847,7 @@
         <v>29</v>
       </c>
       <c r="B53" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C53" s="31" t="s">
         <v>15</v>
@@ -2861,7 +2859,7 @@
         <v>43</v>
       </c>
       <c r="B54" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C54" s="31" t="s">
         <v>15</v>
@@ -2873,7 +2871,7 @@
         <v>44</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C55" s="31"/>
       <c r="D55" s="46"/>
@@ -2886,8 +2884,8 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D30:D32"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2930,11 +2928,11 @@
         <v>11</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -2942,11 +2940,11 @@
         <v>45</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
+++ b/src/main/document/개인 및 법인 첨부파일 타입 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641F728F-2DBA-4803-93B9-EBC39366FF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003DC09F-07B3-410A-ADF8-C16C3A3D63FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="590" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="590" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개인" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="119">
   <si>
     <t>타입</t>
   </si>
@@ -432,6 +432,10 @@
   </si>
   <si>
     <t>경력 선택(3개중 1개는 필수)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.01.06 추가</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2089,10 +2093,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A2830E-7AFD-4798-A62B-AA3F14FFC778}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2247,6 +2251,20 @@
       <c r="C12" s="37"/>
       <c r="D12" s="38" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="31">
+        <v>19</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2263,7 +2281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F413CD3-0CF5-4CB5-91C1-B989FEA36BA3}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
